--- a/環境構築.xlsx
+++ b/環境構築.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gest\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9E4194-847B-48E6-B7ED-AB97DB00671E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA8FC64-0AD3-47A3-938E-4E9BBCEDFB59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{4313FE3E-EA5B-43FF-9994-55D2B051C4FD}"/>
   </bookViews>
@@ -207,6 +207,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>363444</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059EAB6-7BCE-4609-8695-0229F9E4AD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687917" y="11684000"/>
+          <a:ext cx="3115110" cy="4972744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599581</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>143506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C967521-5A20-410D-B311-2F111CBD1104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687917" y="17039167"/>
+          <a:ext cx="4039164" cy="4525006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>506624</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>96181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11155F50-E9B0-450B-9B41-97B3C168F859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687917" y="22394333"/>
+          <a:ext cx="12889124" cy="6668431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -509,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2027AB-BDE2-4880-9D9E-4C0D22564920}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/環境構築.xlsx
+++ b/環境構築.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gest\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA8FC64-0AD3-47A3-938E-4E9BBCEDFB59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0BDC2-2052-40A3-97F9-ECBABE31D9D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{4313FE3E-EA5B-43FF-9994-55D2B051C4FD}"/>
+    <workbookView xWindow="13152" yWindow="2112" windowWidth="23484" windowHeight="22896" xr2:uid="{4313FE3E-EA5B-43FF-9994-55D2B051C4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>https://github.com/join</t>
   </si>
@@ -34,6 +34,10 @@
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -639,20 +643,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2027AB-BDE2-4880-9D9E-4C0D22564920}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>

--- a/環境構築.xlsx
+++ b/環境構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0BDC2-2052-40A3-97F9-ECBABE31D9D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074E64F3-D006-4546-9E01-7BB88EFC520F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13152" yWindow="2112" windowWidth="23484" windowHeight="22896" xr2:uid="{4313FE3E-EA5B-43FF-9994-55D2B051C4FD}"/>
+    <workbookView xWindow="13416" yWindow="2244" windowWidth="23484" windowHeight="22896" xr2:uid="{4313FE3E-EA5B-43FF-9994-55D2B051C4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> 　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -645,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2027AB-BDE2-4880-9D9E-4C0D22564920}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/環境構築.xlsx
+++ b/環境構築.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\testgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/flywestlessonj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074E64F3-D006-4546-9E01-7BB88EFC520F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781C18D-9B4E-D240-B055-357738C2ABB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13416" yWindow="2244" windowWidth="23484" windowHeight="22896" xr2:uid="{4313FE3E-EA5B-43FF-9994-55D2B051C4FD}"/>
+    <workbookView xWindow="5320" yWindow="460" windowWidth="23480" windowHeight="16520" xr2:uid="{4313FE3E-EA5B-43FF-9994-55D2B051C4FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="環境構築" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,19 +647,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
